--- a/archivos/RRellenoOperacion.xlsx
+++ b/archivos/RRellenoOperacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31EA0C-B121-4874-B783-D94448AD88C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D1D6CE-E72D-416F-99EC-F67B00DF16A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,13 +61,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -107,7 +100,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -212,14 +204,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56685</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -235,13 +227,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="2695575" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,67 +552,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J1010"/>
+  <dimension ref="A1:J1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="0.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -630,11 +629,15 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="I11" s="1"/>
@@ -647,16 +650,17 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
@@ -6635,9 +6639,7 @@
       <c r="G1010" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
+  <mergeCells count="3">
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="I5:J5"/>
